--- a/Lista schede alunno.xlsx
+++ b/Lista schede alunno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elia Salerno\Desktop\ver_quinte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4038769-BDD8-44C1-942C-8F4769809B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE8E58E-4322-477B-B86F-38C514B26E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foglio1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -337,9 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -703,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -834,10 +831,18 @@
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -845,7 +850,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4">
         <f t="shared" ref="L5:L26" si="0">SUM(C5:K5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -855,10 +860,18 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -866,7 +879,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -876,18 +889,28 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -897,18 +920,26 @@
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.5</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -918,18 +949,28 @@
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -940,17 +981,25 @@
         <v>7</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -960,7 +1009,9 @@
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -971,7 +1022,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1081,18 +1132,24 @@
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1144,10 +1201,18 @@
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1155,7 +1220,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1165,18 +1230,28 @@
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1226,12 +1301,14 @@
         <v>1.5</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
       <c r="H22" s="4">
         <v>2</v>
       </c>
@@ -1240,7 +1317,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1271,18 +1348,28 @@
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1293,9 +1380,15 @@
         <v>22</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1303,7 +1396,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1313,18 +1406,28 @@
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1382,173 +1485,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1562,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75C18D8-06D5-4E2A-AF21-29A5C716E4EA}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
@@ -1587,186 +1690,186 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1816,173 +1919,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2032,173 +2135,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2248,173 +2351,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2464,173 +2567,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2680,173 +2783,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2896,173 +2999,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3112,173 +3215,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3328,173 +3431,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3544,173 +3647,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3760,173 +3863,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3976,173 +4079,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4192,173 +4295,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4408,173 +4511,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4624,173 +4727,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4840,173 +4943,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5056,173 +5159,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5272,173 +5375,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5488,173 +5591,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5704,173 +5807,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5920,173 +6023,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6136,173 +6239,173 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Lista schede alunno.xlsx
+++ b/Lista schede alunno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elia Salerno\Desktop\ver_quinte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE8E58E-4322-477B-B86F-38C514B26E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2126878A-8871-4A28-A6B1-0A6936E59290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>1.5</v>
@@ -879,7 +879,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -964,13 +964,15 @@
       <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1279,12 +1281,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
+      <c r="K21" s="4"/>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">

--- a/Lista schede alunno.xlsx
+++ b/Lista schede alunno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elia Salerno\Desktop\ver_quinte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2126878A-8871-4A28-A6B1-0A6936E59290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C314EE-E2E5-4023-898B-A6513272416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -810,18 +810,28 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4">
         <f>SUM(C4:K4)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -847,7 +857,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
       <c r="L5" s="4">
         <f t="shared" ref="L5:L26" si="0">SUM(C5:K5)</f>
         <v>6</v>
@@ -876,7 +888,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -907,7 +921,9 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -936,7 +952,9 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -969,10 +987,11 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
       <c r="L9" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -998,10 +1017,12 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1021,7 +1042,9 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1034,18 +1057,30 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1121,7 +1156,9 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
         <v>5.5</v>

--- a/Lista schede alunno.xlsx
+++ b/Lista schede alunno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elia Salerno\Desktop\ver_quinte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C314EE-E2E5-4023-898B-A6513272416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFC308E-2C03-4A59-A23E-EB7B76CA7EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foglio1" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,9 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1119,18 +1121,24 @@
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1185,7 +1193,9 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1198,18 +1208,31 @@
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
       <c r="L17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1219,18 +1242,30 @@
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.5</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1256,10 +1291,12 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1287,10 +1324,12 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1318,10 +1357,12 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1351,9 +1392,10 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
       <c r="L22" s="4">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1403,10 +1445,12 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
       <c r="L24" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,7 +1474,9 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
       <c r="L25" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1461,10 +1507,12 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
       <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Lista schede alunno.xlsx
+++ b/Lista schede alunno.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elia Salerno\Desktop\ver_quinte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELIADONATOSALERNO\Desktop\Ver_quinte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFC308E-2C03-4A59-A23E-EB7B76CA7EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C7D7CE-351D-4F78-90B2-C5E048C09D33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,24 +39,11 @@
     <sheet name="23" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Alunno</t>
   </si>
@@ -80,9 +67,6 @@
   </si>
   <si>
     <t>Crimaldi Domenico</t>
-  </si>
-  <si>
-    <t>Crippa Davide</t>
   </si>
   <si>
     <t>Giani Luca</t>
@@ -176,6 +160,12 @@
   </si>
   <si>
     <t>Il file prova.py è mancante nelle cartelle compresse consegnate. Perciò il test fatto da me non può funzionare.</t>
+  </si>
+  <si>
+    <t>Crippa Davide (in bianco)</t>
+  </si>
+  <si>
+    <t>Crippa Davide (recupero)</t>
   </si>
 </sst>
 </file>
@@ -698,79 +688,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -800,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -834,7 +824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -861,11 +851,11 @@
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" ref="L5:L26" si="0">SUM(C5:K5)</f>
+        <f t="shared" ref="L5:L27" si="0">SUM(C5:K5)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -896,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -929,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -960,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -994,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1025,12 +1015,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -1042,20 +1032,18 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -1069,26 +1057,24 @@
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -1102,30 +1088,36 @@
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F14" s="4">
         <v>2</v>
       </c>
@@ -1138,29 +1130,25 @@
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>1.5</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
-        <v>1.5</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1169,26 +1157,28 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F16" s="4">
         <v>2</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1198,49 +1188,44 @@
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.5</v>
-      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1255,31 +1240,32 @@
         <v>2</v>
       </c>
       <c r="G18" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
         <v>1</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="4">
         <v>1.5</v>
@@ -1287,7 +1273,9 @@
       <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4">
+        <v>1.5</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1296,21 +1284,21 @@
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4">
         <v>1.5</v>
@@ -1318,9 +1306,7 @@
       <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1329,15 +1315,15 @@
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -1365,12 +1351,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1387,45 +1373,57 @@
       <c r="G22" s="4">
         <v>2</v>
       </c>
-      <c r="H22" s="4">
-        <v>2</v>
-      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4">
         <v>1</v>
       </c>
       <c r="L22" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
       <c r="L23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1439,28 +1437,28 @@
       <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="4">
-        <v>2</v>
-      </c>
-      <c r="H24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>3</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
+      <c r="K24" s="4"/>
       <c r="L24" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
       <c r="D25" s="4">
         <v>1.5</v>
       </c>
@@ -1470,28 +1468,28 @@
       <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4">
         <v>1.5</v>
       </c>
@@ -1501,16 +1499,47 @@
       <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" s="4">
-        <v>2</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="L26" s="4">
+      <c r="D27" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1520,7 +1549,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L4:L26">
+  <conditionalFormatting sqref="L4:L27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
@@ -1538,27 +1567,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>9</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Giani Luca</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1568,7 +1597,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1578,7 +1607,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1588,7 +1617,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1598,7 +1627,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1608,7 +1637,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1618,7 +1647,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1628,7 +1657,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1638,7 +1667,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1648,7 +1677,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1658,7 +1687,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1668,7 +1697,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1678,7 +1707,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1688,7 +1717,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1698,7 +1727,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1708,7 +1737,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1718,7 +1747,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1728,7 +1757,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1754,29 +1783,29 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>10</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Mariani Andrea</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -1786,7 +1815,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -1796,7 +1825,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1806,7 +1835,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1816,7 +1845,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1826,7 +1855,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1836,7 +1865,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1846,7 +1875,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1856,7 +1885,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -1866,7 +1895,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -1876,7 +1905,7 @@
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1886,7 +1915,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1896,7 +1925,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1906,7 +1935,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1916,7 +1945,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -1926,7 +1955,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1936,7 +1965,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1946,7 +1975,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -1972,27 +2001,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>11</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Mottadelli Luca</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2002,7 +2031,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2012,7 +2041,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2022,7 +2051,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2032,7 +2061,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2042,7 +2071,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2052,7 +2081,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2062,7 +2091,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2072,7 +2101,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2082,7 +2111,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2092,7 +2121,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2102,7 +2131,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2112,7 +2141,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2122,7 +2151,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2132,7 +2161,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2142,7 +2171,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2152,7 +2181,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2162,7 +2191,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2188,27 +2217,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>12</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Mulas Daniele</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2218,7 +2247,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2228,7 +2257,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2238,7 +2267,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2248,7 +2277,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2258,7 +2287,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2268,7 +2297,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2278,7 +2307,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2288,7 +2317,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2298,7 +2327,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2308,7 +2337,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2318,7 +2347,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2328,7 +2357,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2338,7 +2367,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2348,7 +2377,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2358,7 +2387,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2368,7 +2397,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2378,7 +2407,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2404,27 +2433,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>13</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Negrisolo Filippo</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2434,7 +2463,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2444,7 +2473,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2454,7 +2483,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2464,7 +2493,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2474,7 +2503,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2484,7 +2513,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2494,7 +2523,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2504,7 +2533,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2514,7 +2543,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2524,7 +2553,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2534,7 +2563,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2544,7 +2573,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2554,7 +2583,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2564,7 +2593,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2574,7 +2603,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2584,7 +2613,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2594,7 +2623,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2620,27 +2649,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>14</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Olivoni Pietro</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2650,7 +2679,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2660,7 +2689,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2670,7 +2699,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2680,7 +2709,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2690,7 +2719,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2700,7 +2729,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2710,7 +2739,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2720,7 +2749,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2730,7 +2759,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2740,7 +2769,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2750,7 +2779,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2760,7 +2789,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2770,7 +2799,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2780,7 +2809,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2790,7 +2819,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2800,7 +2829,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2810,7 +2839,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2836,27 +2865,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>15</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Parravicini Gabriele</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2866,7 +2895,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2876,7 +2905,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2886,7 +2915,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2896,7 +2925,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2906,7 +2935,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2916,7 +2945,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2926,7 +2955,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2936,7 +2965,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2946,7 +2975,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2956,7 +2985,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2966,7 +2995,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2976,7 +3005,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2986,7 +3015,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2996,7 +3025,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3006,7 +3035,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3016,7 +3045,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3026,7 +3055,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3052,27 +3081,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>16</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Proserpio Andrea</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3082,7 +3111,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3092,7 +3121,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3102,7 +3131,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3112,7 +3141,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3122,7 +3151,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3132,7 +3161,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3142,7 +3171,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3152,7 +3181,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3162,7 +3191,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3172,7 +3201,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3182,7 +3211,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3192,7 +3221,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3202,7 +3231,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3212,7 +3241,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3222,7 +3251,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3232,7 +3261,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3242,7 +3271,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3268,27 +3297,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>17</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Ravasi Christian</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3298,7 +3327,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3308,7 +3337,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3318,7 +3347,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3328,7 +3357,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3338,7 +3367,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3348,7 +3377,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3358,7 +3387,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3368,7 +3397,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3378,7 +3407,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3388,7 +3417,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3398,7 +3427,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3408,7 +3437,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3418,7 +3447,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3428,7 +3457,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3438,7 +3467,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3448,7 +3477,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3458,7 +3487,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3484,27 +3513,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>18</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Rigamonti Tommaso</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3514,7 +3543,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3524,7 +3553,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3534,7 +3563,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3544,7 +3573,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3554,7 +3583,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3564,7 +3593,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3574,7 +3603,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3584,7 +3613,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3594,7 +3623,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3604,7 +3633,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3614,7 +3643,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3624,7 +3653,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3634,7 +3663,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3644,7 +3673,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3654,7 +3683,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3664,7 +3693,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3674,7 +3703,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3700,27 +3729,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>1</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Airoldi Sebastiano</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3730,7 +3759,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3740,7 +3769,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3750,7 +3779,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3760,7 +3789,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3770,7 +3799,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3780,7 +3809,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3790,7 +3819,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3800,7 +3829,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3810,7 +3839,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3820,7 +3849,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3830,7 +3859,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3840,7 +3869,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3850,7 +3879,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3860,7 +3889,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3870,7 +3899,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3880,7 +3909,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3890,7 +3919,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3916,27 +3945,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>19</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Riva Andrea</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3946,7 +3975,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3956,7 +3985,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3966,7 +3995,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3976,7 +4005,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3986,7 +4015,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3996,7 +4025,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4006,7 +4035,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4016,7 +4045,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4026,7 +4055,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4036,7 +4065,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4046,7 +4075,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4056,7 +4085,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4066,7 +4095,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -4076,7 +4105,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4086,7 +4115,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -4096,7 +4125,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -4106,7 +4135,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4132,27 +4161,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>20</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Silva Coba Jastin Francesco</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4162,7 +4191,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4172,7 +4201,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4182,7 +4211,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4192,7 +4221,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4202,7 +4231,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4212,7 +4241,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4222,7 +4251,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4232,7 +4261,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4242,7 +4271,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4252,7 +4281,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4262,7 +4291,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4272,7 +4301,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4282,7 +4311,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -4292,7 +4321,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4302,7 +4331,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -4312,7 +4341,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -4322,7 +4351,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4348,27 +4377,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>21</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Stalio Mattia</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4378,7 +4407,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4388,7 +4417,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4398,7 +4427,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4408,7 +4437,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4418,7 +4447,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4428,7 +4457,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4438,7 +4467,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4448,7 +4477,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4458,7 +4487,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4468,7 +4497,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4478,7 +4507,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4488,7 +4517,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4498,7 +4527,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -4508,7 +4537,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4518,7 +4547,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -4528,7 +4557,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -4538,7 +4567,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4564,27 +4593,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>22</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Tinazzi Alessandro</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4594,7 +4623,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4604,7 +4633,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4614,7 +4643,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4624,7 +4653,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4634,7 +4663,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4644,7 +4673,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4654,7 +4683,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4664,7 +4693,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4674,7 +4703,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4684,7 +4713,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4694,7 +4723,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4704,7 +4733,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4714,7 +4743,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -4724,7 +4753,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4734,7 +4763,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -4744,7 +4773,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -4754,7 +4783,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4780,27 +4809,27 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>23</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Vigano Marco</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4810,7 +4839,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4820,7 +4849,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4830,7 +4859,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4840,7 +4869,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4850,7 +4879,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4860,7 +4889,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4870,7 +4899,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4880,7 +4909,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4890,7 +4919,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4900,7 +4929,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4910,7 +4939,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4920,7 +4949,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4930,7 +4959,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -4940,7 +4969,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4950,7 +4979,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -4960,7 +4989,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -4970,7 +4999,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4996,27 +5025,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>2</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Alteri Alessandro</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5026,7 +5055,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5036,7 +5065,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5046,7 +5075,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5056,7 +5085,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5066,7 +5095,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5076,7 +5105,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5086,7 +5115,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5096,7 +5125,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5106,7 +5135,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5116,7 +5145,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5126,7 +5155,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5136,7 +5165,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -5146,7 +5175,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -5156,7 +5185,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -5166,7 +5195,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -5176,7 +5205,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -5186,7 +5215,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -5212,27 +5241,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>3</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Bardoni Gabriele</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5242,7 +5271,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5252,7 +5281,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5262,7 +5291,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5272,7 +5301,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5282,7 +5311,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5292,7 +5321,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5302,7 +5331,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5312,7 +5341,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5322,7 +5351,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5332,7 +5361,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5342,7 +5371,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5352,7 +5381,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -5362,7 +5391,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -5372,7 +5401,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -5382,7 +5411,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -5392,7 +5421,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -5402,7 +5431,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -5428,27 +5457,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>4</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Brivio Matteo</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5458,7 +5487,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5468,7 +5497,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5478,7 +5507,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5488,7 +5517,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5498,7 +5527,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5508,7 +5537,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5518,7 +5547,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5528,7 +5557,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5538,7 +5567,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5548,7 +5577,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5558,7 +5587,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5568,7 +5597,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -5578,7 +5607,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -5588,7 +5617,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -5598,7 +5627,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -5608,7 +5637,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -5618,7 +5647,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -5644,27 +5673,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>5</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Casiraghi Matteo</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5674,7 +5703,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5684,7 +5713,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5694,7 +5723,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5704,7 +5733,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5714,7 +5743,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5724,7 +5753,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5734,7 +5763,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5744,7 +5773,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5754,7 +5783,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5764,7 +5793,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5774,7 +5803,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5784,7 +5813,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -5794,7 +5823,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -5804,7 +5833,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -5814,7 +5843,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -5824,7 +5853,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -5834,7 +5863,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -5860,27 +5889,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>6</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Cazzaniga Cristian</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5890,7 +5919,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5900,7 +5929,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5910,7 +5939,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5920,7 +5949,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5930,7 +5959,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5940,7 +5969,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5950,7 +5979,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5960,7 +5989,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5970,7 +5999,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5980,7 +6009,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5990,7 +6019,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6000,7 +6029,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6010,7 +6039,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6020,7 +6049,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6030,7 +6059,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6040,7 +6069,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6050,7 +6079,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -6076,27 +6105,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>7</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
         <v>Crimaldi Domenico</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -6106,7 +6135,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -6116,7 +6145,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6126,7 +6155,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6136,7 +6165,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6146,7 +6175,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6156,7 +6185,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6166,7 +6195,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6176,7 +6205,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6186,7 +6215,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6196,7 +6225,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -6206,7 +6235,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6216,7 +6245,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6226,7 +6255,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6236,7 +6265,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6246,7 +6275,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6256,7 +6285,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6266,7 +6295,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -6292,27 +6321,27 @@
       <selection activeCell="B4" sqref="B4:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">_xlfn.SHEET()-1</f>
         <v>8</v>
       </c>
       <c r="B1" t="str">
-        <f ca="1">VLOOKUP(A1,foglio1!A4:B26,2,FALSE)</f>
-        <v>Crippa Davide</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f ca="1">VLOOKUP(A1,foglio1!A4:B27,2,FALSE)</f>
+        <v>Crippa Davide (in bianco)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -6322,7 +6351,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -6332,7 +6361,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6342,7 +6371,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6352,7 +6381,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6362,7 +6391,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6372,7 +6401,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6382,7 +6411,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6392,7 +6421,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6402,7 +6431,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6412,7 +6441,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -6422,7 +6451,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6432,7 +6461,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6442,7 +6471,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6452,7 +6481,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6462,7 +6491,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6472,7 +6501,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6482,7 +6511,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
